--- a/static/guide/guide_excel.xlsx
+++ b/static/guide/guide_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuhi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal Project\Python\analysis\static\guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{080D817B-419A-4A29-BA9D-305E0A5A17DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4F9C22-E3D0-494C-8E16-1C3A0E359A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{53F49710-770A-441C-9C2C-EDD8C4246A0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53F49710-770A-441C-9C2C-EDD8C4246A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>import</t>
+  </si>
+  <si>
+    <t>datden</t>
   </si>
 </sst>
 </file>
@@ -107,9 +107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +147,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +253,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,7 +406,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -419,13 +419,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
